--- a/results/uni_result.xlsx
+++ b/results/uni_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>dataset</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>FreezerSmallTrain</t>
-  </si>
-  <si>
-    <t>Fungi</t>
   </si>
   <si>
     <t>GunPoint</t>
@@ -737,13 +734,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2630,25 +2643,25 @@
         <v>54</v>
       </c>
       <c r="B41" s="1">
-        <v>0.79569999999999996</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="C41" s="1">
-        <v>0.8387</v>
+        <v>0.9133</v>
       </c>
       <c r="D41" s="1">
-        <v>0.8387</v>
+        <v>0.64</v>
       </c>
       <c r="E41" s="1">
-        <v>0.8387</v>
+        <v>0.76</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>0.9677</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>0.89780000000000004</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -2657,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>0.73119999999999996</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="L41" s="1">
-        <v>5.5599999999999997E-2</v>
+        <v>0.52</v>
       </c>
       <c r="M41" s="1">
-        <v>0.99460000000000004</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="N41" s="1">
-        <v>0.871</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="O41" s="1">
-        <v>0.92469999999999997</v>
+        <v>0.95330000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2677,46 +2690,46 @@
         <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>0.90669999999999995</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="C42" s="1">
-        <v>0.9133</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="D42" s="1">
-        <v>0.64</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="E42" s="1">
-        <v>0.76</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.9778</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>0.99870000000000003</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="L42" s="1">
-        <v>0.52</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="M42" s="1">
-        <v>0.99329999999999996</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="N42" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="O42" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.96509999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2727,43 +2740,43 @@
         <v>0.98419999999999996</v>
       </c>
       <c r="C43" s="1">
-        <v>0.96840000000000004</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="D43" s="1">
-        <v>0.68989999999999996</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="E43" s="1">
-        <v>0.61080000000000001</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="H43" s="1">
         <v>0.99680000000000002</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.9778</v>
-      </c>
       <c r="I43" s="1">
-        <v>0.99680000000000002</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>0.99619999999999997</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="L43" s="1">
-        <v>0.98929999999999996</v>
+        <v>0.52590000000000003</v>
       </c>
       <c r="M43" s="1">
         <v>0.99680000000000002</v>
       </c>
       <c r="N43" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="O43" s="1">
-        <v>0.96509999999999996</v>
+        <v>0.98419999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2771,16 +2784,16 @@
         <v>57</v>
       </c>
       <c r="B44" s="1">
-        <v>0.98419999999999996</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>0.99370000000000003</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>0.73729999999999996</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>0.73729999999999996</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -2789,28 +2802,28 @@
         <v>0.99370000000000003</v>
       </c>
       <c r="H44" s="1">
-        <v>0.99680000000000002</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>0.98419999999999996</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>0.52590000000000003</v>
+        <v>0.52210000000000001</v>
       </c>
       <c r="M44" s="1">
-        <v>0.99680000000000002</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1">
-        <v>0.99680000000000002</v>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
-        <v>0.98419999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2818,46 +2831,46 @@
         <v>58</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>0.4667</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>0.7429</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="G45" s="1">
-        <v>0.99370000000000003</v>
+        <v>0.7238</v>
       </c>
       <c r="H45" s="1">
-        <v>1</v>
+        <v>0.6381</v>
       </c>
       <c r="I45" s="1">
-        <v>0.99370000000000003</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0.7429</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="L45" s="1">
-        <v>0.52210000000000001</v>
+        <v>0.52290000000000003</v>
       </c>
       <c r="M45" s="1">
-        <v>1</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="N45" s="1">
-        <v>1</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="O45" s="1">
-        <v>1</v>
+        <v>0.8095</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2865,46 +2878,46 @@
         <v>59</v>
       </c>
       <c r="B46" s="1">
-        <v>0.4667</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>0.6</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="D46" s="1">
-        <v>0.7429</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="E46" s="1">
-        <v>0.75239999999999996</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="F46" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="G46" s="1">
-        <v>0.7238</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="H46" s="1">
-        <v>0.6381</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="I46" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="J46" s="1">
-        <v>0.7429</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="K46" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="L46" s="1">
-        <v>0.52290000000000003</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="M46" s="1">
-        <v>0.75239999999999996</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="N46" s="1">
-        <v>0.65710000000000002</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="O46" s="1">
-        <v>0.8095</v>
+        <v>0.95040000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2912,46 +2925,46 @@
         <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>0.88109999999999999</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>0.86219999999999997</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="D47" s="1">
-        <v>0.70540000000000003</v>
+        <v>0.44159999999999999</v>
       </c>
       <c r="E47" s="1">
-        <v>0.77569999999999995</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="F47" s="1">
-        <v>0.95409999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="1">
-        <v>0.95409999999999995</v>
+        <v>0.5877</v>
       </c>
       <c r="H47" s="1">
-        <v>0.91620000000000001</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="I47" s="1">
-        <v>0.94320000000000004</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="J47" s="1">
-        <v>0.94589999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="K47" s="1">
-        <v>0.90810000000000002</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="L47" s="1">
-        <v>0.81079999999999997</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="M47" s="1">
-        <v>0.92969999999999997</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="N47" s="1">
-        <v>0.88919999999999999</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="O47" s="1">
-        <v>0.95040000000000002</v>
+        <v>0.5292</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2959,46 +2972,46 @@
         <v>61</v>
       </c>
       <c r="B48" s="1">
-        <v>0.37659999999999999</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="C48" s="1">
-        <v>0.37009999999999998</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="D48" s="1">
-        <v>0.44159999999999999</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="E48" s="1">
-        <v>0.45129999999999998</v>
+        <v>0.65629999999999999</v>
       </c>
       <c r="F48" s="1">
-        <v>0.5</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="G48" s="1">
-        <v>0.5877</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="H48" s="1">
-        <v>0.43509999999999999</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="I48" s="1">
-        <v>0.53569999999999995</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="J48" s="1">
-        <v>0.53249999999999997</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="K48" s="1">
-        <v>0.52190000000000003</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="L48" s="1">
-        <v>0.23230000000000001</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="M48" s="1">
-        <v>0.51619999999999999</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="N48" s="1">
-        <v>0.49349999999999999</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="O48" s="1">
-        <v>0.5292</v>
+        <v>0.73440000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3006,46 +3019,46 @@
         <v>62</v>
       </c>
       <c r="B49" s="1">
-        <v>0.53129999999999999</v>
+        <v>0.84030000000000005</v>
       </c>
       <c r="C49" s="1">
-        <v>0.51559999999999995</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="D49" s="1">
-        <v>0.70309999999999995</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="E49" s="1">
-        <v>0.65629999999999999</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="F49" s="1">
-        <v>0.71879999999999999</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="G49" s="1">
-        <v>0.67190000000000005</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="H49" s="1">
-        <v>0.60940000000000005</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I49" s="1">
-        <v>0.59379999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J49" s="1">
-        <v>0.70309999999999995</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="K49" s="1">
-        <v>0.61040000000000005</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="L49" s="1">
-        <v>0.60940000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="M49" s="1">
-        <v>0.60940000000000005</v>
+        <v>0.93279999999999996</v>
       </c>
       <c r="N49" s="1">
-        <v>0.60940000000000005</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="O49" s="1">
-        <v>0.73440000000000005</v>
+        <v>0.97019999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3053,46 +3066,46 @@
         <v>63</v>
       </c>
       <c r="B50" s="1">
-        <v>0.84030000000000005</v>
+        <v>0.3836</v>
       </c>
       <c r="C50" s="1">
-        <v>0.68069999999999997</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="D50" s="1">
-        <v>0.75629999999999997</v>
+        <v>0.2545</v>
       </c>
       <c r="E50" s="1">
-        <v>0.73950000000000005</v>
+        <v>0.2545</v>
       </c>
       <c r="F50" s="1">
-        <v>0.96640000000000004</v>
+        <v>0.4491</v>
       </c>
       <c r="G50" s="1">
-        <v>0.95799999999999996</v>
+        <v>0.43090000000000001</v>
       </c>
       <c r="H50" s="1">
-        <v>0.95799999999999996</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="I50" s="1">
-        <v>0.95799999999999996</v>
+        <v>0.48180000000000001</v>
       </c>
       <c r="J50" s="1">
-        <v>0.99160000000000004</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="K50" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.4909</v>
       </c>
       <c r="L50" s="1">
-        <v>0.5</v>
+        <v>0.48209999999999997</v>
       </c>
       <c r="M50" s="1">
-        <v>0.93279999999999996</v>
+        <v>0.47820000000000001</v>
       </c>
       <c r="N50" s="1">
-        <v>0.78149999999999997</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="O50" s="1">
-        <v>0.97019999999999995</v>
+        <v>0.5081</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3100,46 +3113,46 @@
         <v>64</v>
       </c>
       <c r="B51" s="1">
-        <v>0.3836</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.34179999999999999</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.2545</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0.2545</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>0.4491</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>0.43090000000000001</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>0.47449999999999998</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
-        <v>0.48180000000000001</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>0.47089999999999999</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>0.4909</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1">
-        <v>0.48209999999999997</v>
+        <v>0.4839</v>
       </c>
       <c r="M51" s="1">
-        <v>0.47820000000000001</v>
+        <v>1</v>
       </c>
       <c r="N51" s="1">
-        <v>0.36549999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51" s="1">
-        <v>0.5081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3159,25 +3172,25 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="L52" s="1">
-        <v>0.4839</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
@@ -3194,46 +3207,46 @@
         <v>66</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0.5101</v>
       </c>
       <c r="F53" s="1">
-        <v>0.99199999999999999</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="G53" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="H53" s="1">
-        <v>1</v>
+        <v>0.58640000000000003</v>
       </c>
       <c r="I53" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="K53" s="1">
-        <v>0.99690000000000001</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="L53" s="1">
-        <v>0.47060000000000002</v>
+        <v>0.56969999999999998</v>
       </c>
       <c r="M53" s="1">
-        <v>1</v>
+        <v>0.4778</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="O53" s="1">
-        <v>1</v>
+        <v>0.57369999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -3241,46 +3254,46 @@
         <v>67</v>
       </c>
       <c r="B54" s="1">
-        <v>0.35510000000000003</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>0.56159999999999999</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="D54" s="1">
-        <v>0.50960000000000005</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0.5101</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0.65859999999999996</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="G54" s="1">
-        <v>0.66359999999999997</v>
+        <v>0.95340000000000003</v>
       </c>
       <c r="H54" s="1">
-        <v>0.58640000000000003</v>
+        <v>0.96020000000000005</v>
       </c>
       <c r="I54" s="1">
-        <v>0.66359999999999997</v>
+        <v>0.9708</v>
       </c>
       <c r="J54" s="1">
-        <v>0.66359999999999997</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="K54" s="1">
-        <v>0.66490000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="L54" s="1">
-        <v>0.56969999999999998</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="M54" s="1">
-        <v>0.4778</v>
+        <v>0.96309999999999996</v>
       </c>
       <c r="N54" s="1">
-        <v>0.64390000000000003</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="O54" s="1">
-        <v>0.57369999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3288,46 +3301,46 @@
         <v>68</v>
       </c>
       <c r="B55" s="1">
-        <v>0.95040000000000002</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="C55" s="1">
-        <v>0.95530000000000004</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.44529999999999997</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="F55" s="1">
-        <v>0.94359999999999999</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="G55" s="1">
-        <v>0.95340000000000003</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="H55" s="1">
-        <v>0.96020000000000005</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="I55" s="1">
-        <v>0.9708</v>
+        <v>0.90129999999999999</v>
       </c>
       <c r="J55" s="1">
-        <v>0.96889999999999998</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="K55" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="L55" s="1">
-        <v>0.50749999999999995</v>
+        <v>0.8992</v>
       </c>
       <c r="M55" s="1">
-        <v>0.96309999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="N55" s="1">
-        <v>0.96499999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="O55" s="1">
-        <v>1</v>
+        <v>0.83460000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3335,46 +3348,46 @@
         <v>69</v>
       </c>
       <c r="B56" s="1">
-        <v>0.79469999999999996</v>
+        <v>0.86890000000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>0.49330000000000002</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="D56" s="1">
-        <v>0.44529999999999997</v>
+        <v>0.6885</v>
       </c>
       <c r="E56" s="1">
-        <v>0.43730000000000002</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="F56" s="1">
-        <v>0.82130000000000003</v>
+        <v>0.72130000000000005</v>
       </c>
       <c r="G56" s="1">
-        <v>0.81330000000000002</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="H56" s="1">
-        <v>0.76270000000000004</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="I56" s="1">
-        <v>0.90129999999999999</v>
+        <v>0.77049999999999996</v>
       </c>
       <c r="J56" s="1">
-        <v>0.87729999999999997</v>
+        <v>0.6885</v>
       </c>
       <c r="K56" s="1">
-        <v>0.94130000000000003</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="L56" s="1">
-        <v>0.8992</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="M56" s="1">
-        <v>0.92</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="N56" s="1">
-        <v>0.52800000000000002</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="O56" s="1">
-        <v>0.83460000000000001</v>
+        <v>0.8196</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3382,46 +3395,46 @@
         <v>70</v>
       </c>
       <c r="B57" s="1">
-        <v>0.86890000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C57" s="1">
-        <v>0.75409999999999999</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="D57" s="1">
-        <v>0.6885</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="E57" s="1">
-        <v>0.65569999999999995</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="F57" s="1">
-        <v>0.72130000000000005</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="G57" s="1">
-        <v>0.78690000000000004</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="H57" s="1">
-        <v>0.75409999999999999</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="I57" s="1">
-        <v>0.77049999999999996</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="J57" s="1">
-        <v>0.6885</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="K57" s="1">
-        <v>0.75739999999999996</v>
+        <v>0.80410000000000004</v>
       </c>
       <c r="L57" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="M57" s="1">
-        <v>0.70489999999999997</v>
+        <v>0.7671</v>
       </c>
       <c r="N57" s="1">
-        <v>0.63929999999999998</v>
+        <v>0.67120000000000002</v>
       </c>
       <c r="O57" s="1">
-        <v>0.8196</v>
+        <v>0.84850000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3429,46 +3442,46 @@
         <v>71</v>
       </c>
       <c r="B58" s="1">
-        <v>0.72599999999999998</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="C58" s="1">
-        <v>0.57530000000000003</v>
+        <v>0.9143</v>
       </c>
       <c r="D58" s="1">
-        <v>0.65749999999999997</v>
+        <v>0.9667</v>
       </c>
       <c r="E58" s="1">
-        <v>0.57530000000000003</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="F58" s="1">
-        <v>0.57530000000000003</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="G58" s="1">
-        <v>0.79449999999999998</v>
+        <v>0.93479999999999996</v>
       </c>
       <c r="H58" s="1">
-        <v>0.73970000000000002</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="I58" s="1">
-        <v>0.68489999999999995</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="J58" s="1">
-        <v>0.83560000000000001</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="K58" s="1">
-        <v>0.80410000000000004</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="L58" s="1">
-        <v>0.27139999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="M58" s="1">
-        <v>0.7671</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="N58" s="1">
-        <v>0.67120000000000002</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="O58" s="1">
-        <v>0.84850000000000003</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3476,46 +3489,46 @@
         <v>72</v>
       </c>
       <c r="B59" s="1">
-        <v>0.93389999999999995</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="C59" s="1">
-        <v>0.9143</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D59" s="1">
-        <v>0.9667</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="E59" s="1">
-        <v>0.96840000000000004</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="F59" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="G59" s="1">
-        <v>0.93479999999999996</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="H59" s="1">
-        <v>0.90620000000000001</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="I59" s="1">
-        <v>0.95520000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="J59" s="1">
-        <v>0.92749999999999999</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="K59" s="1">
-        <v>0.95450000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="L59" s="1">
-        <v>0.2</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="M59" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="N59" s="1">
-        <v>0.94840000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="O59" s="1">
-        <v>0.9667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3523,46 +3536,46 @@
         <v>73</v>
       </c>
       <c r="B60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="D60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.44209999999999999</v>
       </c>
       <c r="E60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F60" s="1">
-        <v>0.9</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="G60" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.77110000000000001</v>
       </c>
       <c r="H60" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.7329</v>
       </c>
       <c r="I60" s="1">
-        <v>0.95</v>
+        <v>0.79339999999999999</v>
       </c>
       <c r="J60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="K60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="L60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="M60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.78549999999999998</v>
       </c>
       <c r="N60" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="O60" s="1">
-        <v>0.95</v>
+        <v>0.72360000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3570,46 +3583,46 @@
         <v>74</v>
       </c>
       <c r="B61" s="1">
-        <v>0.73680000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C61" s="1">
-        <v>0.68420000000000003</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="D61" s="1">
-        <v>0.44209999999999999</v>
+        <v>0.59740000000000004</v>
       </c>
       <c r="E61" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.60389999999999999</v>
       </c>
       <c r="F61" s="1">
-        <v>0.76319999999999999</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="G61" s="1">
-        <v>0.77110000000000001</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="H61" s="1">
-        <v>0.7329</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="I61" s="1">
-        <v>0.79339999999999999</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J61" s="1">
-        <v>0.80859999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="K61" s="1">
-        <v>0.80389999999999995</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="L61" s="1">
-        <v>0.53280000000000005</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="M61" s="1">
-        <v>0.78549999999999998</v>
+        <v>0.56489999999999996</v>
       </c>
       <c r="N61" s="1">
-        <v>0.73160000000000003</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="O61" s="1">
-        <v>0.72360000000000002</v>
+        <v>0.63629999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3617,46 +3630,46 @@
         <v>75</v>
       </c>
       <c r="B62" s="1">
-        <v>0.5</v>
+        <v>0.6976</v>
       </c>
       <c r="C62" s="1">
-        <v>0.51949999999999996</v>
+        <v>0.76629999999999998</v>
       </c>
       <c r="D62" s="1">
-        <v>0.59740000000000004</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="E62" s="1">
-        <v>0.60389999999999999</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="F62" s="1">
-        <v>0.57789999999999997</v>
+        <v>0.83509999999999995</v>
       </c>
       <c r="G62" s="1">
-        <v>0.61040000000000005</v>
+        <v>0.85219999999999996</v>
       </c>
       <c r="H62" s="1">
-        <v>0.55840000000000001</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="I62" s="1">
-        <v>0.65300000000000002</v>
+        <v>0.83160000000000001</v>
       </c>
       <c r="J62" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.85219999999999996</v>
       </c>
       <c r="K62" s="1">
-        <v>0.59089999999999998</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="L62" s="1">
-        <v>0.59250000000000003</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="M62" s="1">
-        <v>0.56489999999999996</v>
+        <v>0.81789999999999996</v>
       </c>
       <c r="N62" s="1">
-        <v>0.58440000000000003</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="O62" s="1">
-        <v>0.63629999999999998</v>
+        <v>0.82130000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3664,46 +3677,46 @@
         <v>76</v>
       </c>
       <c r="B63" s="1">
-        <v>0.6976</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="C63" s="1">
-        <v>0.76629999999999998</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D63" s="1">
-        <v>0.67349999999999999</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="E63" s="1">
-        <v>0.67349999999999999</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="F63" s="1">
-        <v>0.83509999999999995</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G63" s="1">
-        <v>0.85219999999999996</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="H63" s="1">
-        <v>0.82130000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="I63" s="1">
-        <v>0.83160000000000001</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="J63" s="1">
-        <v>0.85219999999999996</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="K63" s="1">
-        <v>0.85150000000000003</v>
+        <v>0.55149999999999999</v>
       </c>
       <c r="L63" s="1">
-        <v>0.64670000000000005</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="M63" s="1">
-        <v>0.81789999999999996</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="N63" s="1">
-        <v>0.82130000000000003</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="O63" s="1">
-        <v>0.82130000000000003</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3711,46 +3724,46 @@
         <v>77</v>
       </c>
       <c r="B64" s="1">
-        <v>0.50649999999999995</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="D64" s="1">
-        <v>0.47399999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="E64" s="1">
-        <v>0.48049999999999998</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="F64" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="G64" s="1">
-        <v>0.51949999999999996</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="H64" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.94310000000000005</v>
       </c>
       <c r="I64" s="1">
-        <v>0.54549999999999998</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="J64" s="1">
-        <v>0.51949999999999996</v>
+        <v>0.9819</v>
       </c>
       <c r="K64" s="1">
-        <v>0.55149999999999999</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="L64" s="1">
-        <v>0.40100000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="M64" s="1">
-        <v>0.50649999999999995</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="N64" s="1">
-        <v>0.55189999999999995</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="O64" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.9546</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3758,46 +3771,46 @@
         <v>78</v>
       </c>
       <c r="B65" s="1">
-        <v>0.84160000000000001</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="C65" s="1">
-        <v>0.89729999999999999</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="D65" s="1">
-        <v>0.85199999999999998</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="E65" s="1">
-        <v>0.80740000000000001</v>
+        <v>0.78269999999999995</v>
       </c>
       <c r="F65" s="1">
-        <v>0.97319999999999995</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="G65" s="1">
-        <v>0.97319999999999995</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="H65" s="1">
-        <v>0.94310000000000005</v>
+        <v>0.8891</v>
       </c>
       <c r="I65" s="1">
-        <v>0.97030000000000005</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="J65" s="1">
-        <v>0.9819</v>
+        <v>0.96660000000000001</v>
       </c>
       <c r="K65" s="1">
-        <v>0.98050000000000004</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="L65" s="1">
         <v>0.2</v>
       </c>
       <c r="M65" s="1">
-        <v>0.97109999999999996</v>
+        <v>0.9163</v>
       </c>
       <c r="N65" s="1">
-        <v>0.93359999999999999</v>
+        <v>0.8206</v>
       </c>
       <c r="O65" s="1">
-        <v>0.9546</v>
+        <v>0.88649999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3805,46 +3818,46 @@
         <v>79</v>
       </c>
       <c r="B66" s="1">
-        <v>0.77980000000000005</v>
+        <v>0.8347</v>
       </c>
       <c r="C66" s="1">
-        <v>0.83550000000000002</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="D66" s="1">
-        <v>0.78139999999999998</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="E66" s="1">
-        <v>0.78269999999999995</v>
+        <v>0.84819999999999995</v>
       </c>
       <c r="F66" s="1">
-        <v>0.88139999999999996</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="G66" s="1">
-        <v>0.95179999999999998</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="H66" s="1">
-        <v>0.8891</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="I66" s="1">
-        <v>0.93769999999999998</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="J66" s="1">
-        <v>0.96660000000000001</v>
+        <v>0.94569999999999999</v>
       </c>
       <c r="K66" s="1">
-        <v>0.95640000000000003</v>
+        <v>0.90720000000000001</v>
       </c>
       <c r="L66" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M66" s="1">
-        <v>0.9163</v>
+        <v>0.91610000000000003</v>
       </c>
       <c r="N66" s="1">
-        <v>0.8206</v>
+        <v>0.85540000000000005</v>
       </c>
       <c r="O66" s="1">
-        <v>0.88649999999999995</v>
+        <v>0.90720000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3852,46 +3865,46 @@
         <v>80</v>
       </c>
       <c r="B67" s="1">
-        <v>0.8347</v>
+        <v>0.7903</v>
       </c>
       <c r="C67" s="1">
-        <v>0.87860000000000005</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="D67" s="1">
-        <v>0.86660000000000004</v>
+        <v>0.8407</v>
       </c>
       <c r="E67" s="1">
-        <v>0.84819999999999995</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="F67" s="1">
-        <v>0.93210000000000004</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="G67" s="1">
-        <v>0.95609999999999995</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="H67" s="1">
-        <v>0.86099999999999999</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="I67" s="1">
-        <v>0.91849999999999998</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="J67" s="1">
-        <v>0.94569999999999999</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="K67" s="1">
-        <v>0.90720000000000001</v>
+        <v>0.96209999999999996</v>
       </c>
       <c r="L67" s="1">
-        <v>0.5</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="M67" s="1">
-        <v>0.91610000000000003</v>
+        <v>0.96279999999999999</v>
       </c>
       <c r="N67" s="1">
-        <v>0.85540000000000005</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O67" s="1">
-        <v>0.90720000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3899,46 +3912,46 @@
         <v>81</v>
       </c>
       <c r="B68" s="1">
-        <v>0.7903</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="C68" s="1">
-        <v>0.82899999999999996</v>
+        <v>0.87990000000000002</v>
       </c>
       <c r="D68" s="1">
-        <v>0.8407</v>
+        <v>0.8972</v>
       </c>
       <c r="E68" s="1">
-        <v>0.84219999999999995</v>
+        <v>0.89410000000000001</v>
       </c>
       <c r="F68" s="1">
-        <v>0.92569999999999997</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="G68" s="1">
-        <v>0.93440000000000001</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="H68" s="1">
-        <v>0.89870000000000005</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="I68" s="1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="J68" s="1">
         <v>0.95979999999999999</v>
       </c>
-      <c r="J68" s="1">
-        <v>0.95730000000000004</v>
-      </c>
       <c r="K68" s="1">
-        <v>0.96209999999999996</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="L68" s="1">
-        <v>0.94359999999999999</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="M68" s="1">
-        <v>0.96279999999999999</v>
+        <v>0.9496</v>
       </c>
       <c r="N68" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="O68" s="1">
-        <v>0.91600000000000004</v>
+        <v>0.95320000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3946,46 +3959,46 @@
         <v>82</v>
       </c>
       <c r="B69" s="1">
-        <v>0.86460000000000004</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="C69" s="1">
-        <v>0.87990000000000002</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="D69" s="1">
-        <v>0.8972</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="E69" s="1">
-        <v>0.89410000000000001</v>
+        <v>0.42559999999999998</v>
       </c>
       <c r="F69" s="1">
-        <v>0.93689999999999996</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="G69" s="1">
-        <v>0.95979999999999999</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="H69" s="1">
-        <v>0.91349999999999998</v>
+        <v>0.76029999999999998</v>
       </c>
       <c r="I69" s="1">
-        <v>0.96489999999999998</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="J69" s="1">
-        <v>0.95979999999999999</v>
+        <v>0.96279999999999999</v>
       </c>
       <c r="K69" s="1">
-        <v>0.96809999999999996</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="L69" s="1">
-        <v>0.94720000000000004</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="M69" s="1">
-        <v>0.9496</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="N69" s="1">
-        <v>0.93130000000000002</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="O69" s="1">
-        <v>0.95320000000000005</v>
+        <v>0.92559999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3993,46 +4006,46 @@
         <v>83</v>
       </c>
       <c r="B70" s="1">
-        <v>0.59089999999999998</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C70" s="1">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.86670000000000003</v>
       </c>
-      <c r="D70" s="1">
-        <v>0.49590000000000001</v>
-      </c>
       <c r="E70" s="1">
-        <v>0.42559999999999998</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="F70" s="1">
-        <v>0.97519999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="G70" s="1">
-        <v>0.97109999999999996</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="H70" s="1">
-        <v>0.76029999999999998</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="I70" s="1">
-        <v>0.93799999999999994</v>
+        <v>0.9</v>
       </c>
       <c r="J70" s="1">
-        <v>0.96279999999999999</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="K70" s="1">
-        <v>0.96899999999999997</v>
+        <v>0.91220000000000001</v>
       </c>
       <c r="L70" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="M70" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.9587</v>
       </c>
       <c r="N70" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="O70" s="1">
-        <v>0.92559999999999998</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -4040,46 +4053,46 @@
         <v>84</v>
       </c>
       <c r="B71" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.72840000000000005</v>
       </c>
       <c r="C71" s="1">
-        <v>0.52070000000000005</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="D71" s="1">
-        <v>0.86670000000000003</v>
+        <v>0.63870000000000005</v>
       </c>
       <c r="E71" s="1">
-        <v>0.86670000000000003</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="F71" s="1">
-        <v>0.9</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="G71" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H71" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.77969999999999995</v>
       </c>
       <c r="I71" s="1">
-        <v>0.9</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="J71" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="K71" s="1">
-        <v>0.91220000000000001</v>
+        <v>0.8286</v>
       </c>
       <c r="L71" s="1">
-        <v>0.43330000000000002</v>
+        <v>0.65110000000000001</v>
       </c>
       <c r="M71" s="1">
-        <v>0.9587</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="N71" s="1">
-        <v>0.5</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="O71" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.81240000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -4087,46 +4100,46 @@
         <v>85</v>
       </c>
       <c r="B72" s="1">
-        <v>0.72840000000000005</v>
+        <v>0.22839999999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>0.10920000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D72" s="1">
-        <v>0.63870000000000005</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>0.62590000000000001</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="F72" s="1">
-        <v>0.81240000000000001</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="G72" s="1">
-        <v>0.83099999999999996</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="H72" s="1">
-        <v>0.77969999999999995</v>
+        <v>0.31909999999999999</v>
       </c>
       <c r="I72" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.28010000000000002</v>
       </c>
       <c r="J72" s="1">
-        <v>0.83099999999999996</v>
+        <v>0.35649999999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>0.8286</v>
+        <v>0.3674</v>
       </c>
       <c r="L72" s="1">
-        <v>0.65110000000000001</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="M72" s="1">
-        <v>0.35809999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="N72" s="1">
-        <v>0.15820000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="O72" s="1">
-        <v>0.81240000000000001</v>
+        <v>0.39550000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -4134,46 +4147,46 @@
         <v>86</v>
       </c>
       <c r="B73" s="1">
-        <v>0.22839999999999999</v>
+        <v>0.1827</v>
       </c>
       <c r="C73" s="1">
-        <v>0.3</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="D73" s="1">
-        <v>8.8599999999999998E-2</v>
+        <v>0.1154</v>
       </c>
       <c r="E73" s="1">
-        <v>9.5500000000000002E-2</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="F73" s="1">
-        <v>0.33910000000000001</v>
+        <v>0.83169999999999999</v>
       </c>
       <c r="G73" s="1">
-        <v>0.33910000000000001</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="H73" s="1">
-        <v>0.31909999999999999</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="I73" s="1">
-        <v>0.28010000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="J73" s="1">
-        <v>0.35649999999999998</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="K73" s="1">
-        <v>0.3674</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="L73" s="1">
-        <v>0.11210000000000001</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M73" s="1">
-        <v>0.1</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="N73" s="1">
-        <v>0.22</v>
+        <v>0.1971</v>
       </c>
       <c r="O73" s="1">
-        <v>0.39550000000000002</v>
+        <v>0.88939999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -4181,46 +4194,46 @@
         <v>87</v>
       </c>
       <c r="B74" s="1">
-        <v>0.1827</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>0.28849999999999998</v>
+        <v>0.1394</v>
       </c>
       <c r="D74" s="1">
-        <v>0.1154</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="E74" s="1">
-        <v>0.10580000000000001</v>
+        <v>0.27879999999999999</v>
       </c>
       <c r="F74" s="1">
-        <v>0.83169999999999999</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="G74" s="1">
-        <v>0.84130000000000005</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="H74" s="1">
-        <v>0.23080000000000001</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="I74" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="J74" s="1">
-        <v>0.63460000000000005</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="K74" s="1">
-        <v>0.72340000000000004</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="L74" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.1394</v>
       </c>
       <c r="M74" s="1">
-        <v>0.98080000000000001</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="N74" s="1">
-        <v>0.1971</v>
+        <v>0.1346</v>
       </c>
       <c r="O74" s="1">
-        <v>0.88939999999999997</v>
+        <v>0.90859999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -4228,46 +4241,46 @@
         <v>88</v>
       </c>
       <c r="B75" s="1">
-        <v>0.48080000000000001</v>
+        <v>0.32690000000000002</v>
       </c>
       <c r="C75" s="1">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="D75" s="1">
         <v>0.1394</v>
       </c>
-      <c r="D75" s="1">
-        <v>0.30769999999999997</v>
-      </c>
       <c r="E75" s="1">
-        <v>0.27879999999999999</v>
+        <v>0.1394</v>
       </c>
       <c r="F75" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.9375</v>
       </c>
       <c r="G75" s="1">
-        <v>0.98080000000000001</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="H75" s="1">
-        <v>0.64419999999999999</v>
+        <v>0.37019999999999997</v>
       </c>
       <c r="I75" s="1">
-        <v>0.96150000000000002</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="J75" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="K75" s="1">
-        <v>0.93540000000000001</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="L75" s="1">
-        <v>0.1394</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="M75" s="1">
-        <v>0.91830000000000001</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="N75" s="1">
-        <v>0.1346</v>
+        <v>0</v>
       </c>
       <c r="O75" s="1">
-        <v>0.90859999999999996</v>
+        <v>0.87019999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -4275,46 +4288,46 @@
         <v>89</v>
       </c>
       <c r="B76" s="1">
-        <v>0.32690000000000002</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>0.53449999999999998</v>
+        <v>0.96189999999999998</v>
       </c>
       <c r="D76" s="1">
-        <v>0.1394</v>
+        <v>0.96189999999999998</v>
       </c>
       <c r="E76" s="1">
-        <v>0.1394</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="F76" s="1">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
-        <v>0.96150000000000002</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>0.37019999999999997</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="I76" s="1">
-        <v>0.94230000000000003</v>
+        <v>1</v>
       </c>
       <c r="J76" s="1">
-        <v>0.87019999999999997</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>0.85350000000000004</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>1.9199999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="M76" s="1">
-        <v>6.1499999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="N76" s="1">
-        <v>0</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="O76" s="1">
-        <v>0.87019999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -4322,46 +4335,46 @@
         <v>90</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="C77" s="1">
-        <v>0.96189999999999998</v>
+        <v>0.9778</v>
       </c>
       <c r="D77" s="1">
-        <v>0.96189999999999998</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="E77" s="1">
-        <v>0.99050000000000005</v>
+        <v>0.9778</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="H77" s="1">
-        <v>0.99050000000000005</v>
+        <v>0.9889</v>
       </c>
       <c r="I77" s="1">
-        <v>1</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="L77" s="1">
-        <v>1</v>
+        <v>0.86050000000000004</v>
       </c>
       <c r="M77" s="1">
-        <v>1</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="N77" s="1">
-        <v>0.99050000000000005</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="O77" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -4369,46 +4382,46 @@
         <v>91</v>
       </c>
       <c r="B78" s="1">
-        <v>0.92220000000000002</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="C78" s="1">
-        <v>0.9778</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="D78" s="1">
-        <v>0.97219999999999995</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="E78" s="1">
-        <v>0.9778</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="F78" s="1">
-        <v>0.91110000000000002</v>
+        <v>0.8488</v>
       </c>
       <c r="G78" s="1">
-        <v>0.91110000000000002</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="H78" s="1">
-        <v>0.9889</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="I78" s="1">
-        <v>0.94440000000000002</v>
+        <v>0.8488</v>
       </c>
       <c r="J78" s="1">
-        <v>0.98329999999999995</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="K78" s="1">
-        <v>0.97440000000000004</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="L78" s="1">
-        <v>0.86050000000000004</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M78" s="1">
-        <v>0.91110000000000002</v>
+        <v>0.8488</v>
       </c>
       <c r="N78" s="1">
-        <v>0.99439999999999995</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="O78" s="1">
-        <v>0.95</v>
+        <v>0.85370000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -4416,46 +4429,46 @@
         <v>92</v>
       </c>
       <c r="B79" s="1">
-        <v>0.80489999999999995</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="C79" s="1">
-        <v>0.78539999999999999</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="D79" s="1">
-        <v>0.85850000000000004</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="E79" s="1">
-        <v>0.85850000000000004</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="F79" s="1">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="N79" s="1">
         <v>0.8488</v>
       </c>
-      <c r="G79" s="1">
-        <v>0.85850000000000004</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0.8488</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="L79" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="M79" s="1">
-        <v>0.8488</v>
-      </c>
-      <c r="N79" s="1">
-        <v>0.85370000000000001</v>
-      </c>
       <c r="O79" s="1">
-        <v>0.85370000000000001</v>
+        <v>0.89690000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4463,46 +4476,46 @@
         <v>93</v>
       </c>
       <c r="B80" s="1">
-        <v>0.78349999999999997</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="C80" s="1">
-        <v>0.80759999999999998</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="D80" s="1">
-        <v>0.64259999999999995</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="E80" s="1">
-        <v>0.64259999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="F80" s="1">
-        <v>0.87970000000000004</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="G80" s="1">
-        <v>0.90380000000000005</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="H80" s="1">
-        <v>0.86599999999999999</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="I80" s="1">
-        <v>0.86939999999999995</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="J80" s="1">
-        <v>0.93130000000000002</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="K80" s="1">
-        <v>0.90810000000000002</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="L80" s="1">
-        <v>0.67669999999999997</v>
+        <v>0.45</v>
       </c>
       <c r="M80" s="1">
-        <v>0.91069999999999995</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="N80" s="1">
-        <v>0.8488</v>
+        <v>0.8</v>
       </c>
       <c r="O80" s="1">
-        <v>0.89690000000000003</v>
+        <v>0.85360000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4510,46 +4523,46 @@
         <v>94</v>
       </c>
       <c r="B81" s="1">
-        <v>0.75609999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C81" s="1">
-        <v>0.70730000000000004</v>
+        <v>0.3947</v>
       </c>
       <c r="D81" s="1">
-        <v>0.71220000000000006</v>
+        <v>0.36</v>
       </c>
       <c r="E81" s="1">
-        <v>0.70730000000000004</v>
+        <v>0.3493</v>
       </c>
       <c r="F81" s="1">
-        <v>0.80979999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G81" s="1">
-        <v>0.80979999999999996</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="H81" s="1">
-        <v>0.77559999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="I81" s="1">
-        <v>0.79020000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="J81" s="1">
-        <v>0.80979999999999996</v>
+        <v>0.52529999999999999</v>
       </c>
       <c r="K81" s="1">
-        <v>0.80069999999999997</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="L81" s="1">
-        <v>0.45</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="M81" s="1">
-        <v>0.80489999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="N81" s="1">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="O81" s="1">
-        <v>0.85360000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -4557,46 +4570,46 @@
         <v>95</v>
       </c>
       <c r="B82" s="1">
-        <v>0.46400000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="C82" s="1">
-        <v>0.3947</v>
+        <v>0.64</v>
       </c>
       <c r="D82" s="1">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="E82" s="1">
-        <v>0.3493</v>
+        <v>0.4</v>
       </c>
       <c r="F82" s="1">
-        <v>0.57599999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="G82" s="1">
-        <v>0.53869999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="H82" s="1">
-        <v>0.57599999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="I82" s="1">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="J82" s="1">
-        <v>0.52529999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="K82" s="1">
-        <v>0.74850000000000005</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L82" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="M82" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N82" s="1">
-        <v>0.48</v>
+        <v>0.76</v>
       </c>
       <c r="O82" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -4604,46 +4617,46 @@
         <v>96</v>
       </c>
       <c r="B83" s="1">
-        <v>0.54</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="C83" s="1">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="D83" s="1">
-        <v>0.44</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="E83" s="1">
-        <v>0.4</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="F83" s="1">
-        <v>0.88</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="G83" s="1">
-        <v>0.88</v>
+        <v>0.44529999999999997</v>
       </c>
       <c r="H83" s="1">
-        <v>0.74</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="I83" s="1">
-        <v>0.9</v>
+        <v>0.504</v>
       </c>
       <c r="J83" s="1">
-        <v>0.86</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="K83" s="1">
-        <v>0.86399999999999999</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="L83" s="1">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="M83" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="N83" s="1">
-        <v>0.76</v>
+        <v>0.432</v>
       </c>
       <c r="O83" s="1">
-        <v>0.7</v>
+        <v>0.67789999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -4651,46 +4664,46 @@
         <v>97</v>
       </c>
       <c r="B84" s="1">
-        <v>0.39729999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C84" s="1">
-        <v>0.36</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="D84" s="1">
-        <v>0.43469999999999998</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="E84" s="1">
-        <v>0.43469999999999998</v>
+        <v>0.48830000000000001</v>
       </c>
       <c r="F84" s="1">
-        <v>0.46129999999999999</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G84" s="1">
-        <v>0.44529999999999997</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="H84" s="1">
-        <v>0.47470000000000001</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="I84" s="1">
-        <v>0.504</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="J84" s="1">
-        <v>0.55730000000000002</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="K84" s="1">
-        <v>0.57330000000000003</v>
+        <v>0.9446</v>
       </c>
       <c r="L84" s="1">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="M84" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="N84" s="1">
-        <v>0.432</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="O84" s="1">
-        <v>0.67789999999999995</v>
+        <v>0.91669999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -4698,46 +4711,46 @@
         <v>98</v>
       </c>
       <c r="B85" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.78439999999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>0.89829999999999999</v>
+        <v>0.5978</v>
       </c>
       <c r="D85" s="1">
-        <v>0.64829999999999999</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="E85" s="1">
-        <v>0.48830000000000001</v>
+        <v>0.31330000000000002</v>
       </c>
       <c r="F85" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="G85" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="H85" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="I85" s="1">
-        <v>0.92169999999999996</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="J85" s="1">
-        <v>0.92169999999999996</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="K85" s="1">
-        <v>0.9446</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="L85" s="1">
-        <v>0.5</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="M85" s="1">
-        <v>0.85</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="N85" s="1">
-        <v>0.94169999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="O85" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -4745,46 +4758,46 @@
         <v>99</v>
       </c>
       <c r="B86" s="1">
-        <v>0.78439999999999999</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="C86" s="1">
-        <v>0.5978</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="D86" s="1">
         <v>0.34670000000000001</v>
       </c>
       <c r="E86" s="1">
-        <v>0.31330000000000002</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="F86" s="1">
-        <v>0.68</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="G86" s="1">
-        <v>0.68889999999999996</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="H86" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="I86" s="1">
-        <v>0.63560000000000005</v>
+        <v>0.88</v>
       </c>
       <c r="J86" s="1">
-        <v>0.78669999999999995</v>
+        <v>0.9022</v>
       </c>
       <c r="K86" s="1">
-        <v>0.77170000000000005</v>
+        <v>0.9173</v>
       </c>
       <c r="L86" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="M86" s="1">
-        <v>0.53779999999999994</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="N86" s="1">
-        <v>0.6</v>
+        <v>0.85560000000000003</v>
       </c>
       <c r="O86" s="1">
-        <v>0.81100000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -4792,46 +4805,46 @@
         <v>100</v>
       </c>
       <c r="B87" s="1">
-        <v>0.87329999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="C87" s="1">
-        <v>0.79110000000000003</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="D87" s="1">
-        <v>0.34670000000000001</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="E87" s="1">
-        <v>0.33560000000000001</v>
+        <v>0.4778</v>
       </c>
       <c r="F87" s="1">
-        <v>0.86219999999999997</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="G87" s="1">
-        <v>0.89329999999999998</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="H87" s="1">
-        <v>0.87560000000000004</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="I87" s="1">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1">
-        <v>0.9022</v>
+        <v>1</v>
       </c>
       <c r="K87" s="1">
-        <v>0.9173</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>0.80220000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="M87" s="1">
-        <v>0.67110000000000003</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="N87" s="1">
-        <v>0.85560000000000003</v>
+        <v>0.4667</v>
       </c>
       <c r="O87" s="1">
-        <v>0.9</v>
+        <v>0.99439999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -4839,46 +4852,46 @@
         <v>101</v>
       </c>
       <c r="B88" s="1">
-        <v>0.65</v>
+        <v>0.76829999999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>0.53890000000000005</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="D88" s="1">
-        <v>0.49440000000000001</v>
+        <v>0.59330000000000005</v>
       </c>
       <c r="E88" s="1">
-        <v>0.4778</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="F88" s="1">
-        <v>0.99439999999999995</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="G88" s="1">
-        <v>0.99439999999999995</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="H88" s="1">
-        <v>0.92220000000000002</v>
+        <v>0.79</v>
       </c>
       <c r="I88" s="1">
-        <v>1</v>
+        <v>0.9083</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="K88" s="1">
-        <v>1</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="L88" s="1">
-        <v>0.5</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="M88" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N88" s="1">
-        <v>0.4667</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="O88" s="1">
-        <v>0.99439999999999995</v>
+        <v>0.92669999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -4886,46 +4899,46 @@
         <v>102</v>
       </c>
       <c r="B89" s="1">
-        <v>0.76829999999999998</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="C89" s="1">
-        <v>0.75170000000000003</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>0.59330000000000005</v>
+        <v>0.42130000000000001</v>
       </c>
       <c r="E89" s="1">
-        <v>0.58499999999999996</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="F89" s="1">
-        <v>0.92169999999999996</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="G89" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="H89" s="1">
-        <v>0.79</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="I89" s="1">
-        <v>0.9083</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="J89" s="1">
-        <v>0.92669999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="K89" s="1">
-        <v>0.94830000000000003</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="L89" s="1">
-        <v>0.92610000000000003</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="M89" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="N89" s="1">
-        <v>0.74670000000000003</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="O89" s="1">
-        <v>0.92669999999999997</v>
+        <v>0.81330000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4933,46 +4946,46 @@
         <v>103</v>
       </c>
       <c r="B90" s="1">
-        <v>0.64270000000000005</v>
+        <v>0.82669999999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>0.34129999999999999</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="D90" s="1">
-        <v>0.42130000000000001</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.41070000000000001</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>0.82930000000000004</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1">
-        <v>0.77070000000000005</v>
+        <v>0.96</v>
       </c>
       <c r="H90" s="1">
-        <v>0.79730000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I90" s="1">
-        <v>0.81330000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="J90" s="1">
-        <v>0.83199999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="K90" s="1">
-        <v>0.81930000000000003</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="L90" s="1">
-        <v>0.81359999999999999</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="M90" s="1">
-        <v>0.81330000000000002</v>
+        <v>0.9667</v>
       </c>
       <c r="N90" s="1">
-        <v>0.61070000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="O90" s="1">
-        <v>0.81330000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -4980,46 +4993,46 @@
         <v>104</v>
       </c>
       <c r="B91" s="1">
-        <v>0.82669999999999999</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="C91" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>0.84030000000000005</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>0.90349999999999997</v>
       </c>
       <c r="F91" s="1">
-        <v>1</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="G91" s="1">
-        <v>0.96</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="H91" s="1">
-        <v>0.98</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="I91" s="1">
-        <v>0.98</v>
+        <v>0.91679999999999995</v>
       </c>
       <c r="J91" s="1">
-        <v>0.98</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="K91" s="1">
-        <v>0.98019999999999996</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="L91" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="M91" s="1">
-        <v>0.9667</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="N91" s="1">
-        <v>0.98</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="O91" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.89849999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -5027,46 +5040,46 @@
         <v>105</v>
       </c>
       <c r="B92" s="1">
-        <v>0.72550000000000003</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="C92" s="1">
-        <v>0.69550000000000001</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="D92" s="1">
-        <v>0.84030000000000005</v>
+        <v>0.79959999999999998</v>
       </c>
       <c r="E92" s="1">
-        <v>0.90349999999999997</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="F92" s="1">
-        <v>0.88690000000000002</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="G92" s="1">
-        <v>0.94010000000000005</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="H92" s="1">
-        <v>0.88519999999999999</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="I92" s="1">
-        <v>0.91679999999999995</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="J92" s="1">
-        <v>0.88690000000000002</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="K92" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="L92" s="1">
-        <v>0.7</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="M92" s="1">
-        <v>0.96509999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="N92" s="1">
-        <v>0.74380000000000002</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="O92" s="1">
-        <v>0.89849999999999997</v>
+        <v>0.88770000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -5074,46 +5087,46 @@
         <v>106</v>
       </c>
       <c r="B93" s="1">
-        <v>0.83109999999999995</v>
+        <v>0.90659999999999996</v>
       </c>
       <c r="C93" s="1">
-        <v>0.85940000000000005</v>
+        <v>0.8488</v>
       </c>
       <c r="D93" s="1">
-        <v>0.79959999999999998</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="E93" s="1">
-        <v>0.80059999999999998</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="F93" s="1">
-        <v>0.88770000000000004</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="G93" s="1">
-        <v>0.94650000000000001</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="H93" s="1">
-        <v>0.88770000000000004</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="I93" s="1">
-        <v>0.91290000000000004</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="J93" s="1">
-        <v>0.93810000000000004</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="K93" s="1">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="O93" s="1">
         <v>0.95050000000000001</v>
-      </c>
-      <c r="L93" s="1">
-        <v>0.59260000000000002</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="N93" s="1">
-        <v>0.83109999999999995</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.88770000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -5121,46 +5134,46 @@
         <v>107</v>
       </c>
       <c r="B94" s="1">
-        <v>0.90659999999999996</v>
+        <v>0.9405</v>
       </c>
       <c r="C94" s="1">
-        <v>0.8488</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="D94" s="1">
-        <v>0.79400000000000004</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="E94" s="1">
-        <v>0.79969999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="F94" s="1">
-        <v>0.98229999999999995</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="G94" s="1">
-        <v>0.79969999999999997</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="H94" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.9486</v>
       </c>
       <c r="I94" s="1">
         <v>0.98109999999999997</v>
       </c>
       <c r="J94" s="1">
-        <v>0.98180000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="K94" s="1">
-        <v>0.98150000000000004</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="L94" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="M94" s="1">
-        <v>0.97399999999999998</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="N94" s="1">
-        <v>0.94730000000000003</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="O94" s="1">
-        <v>0.95050000000000001</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -5168,46 +5181,46 @@
         <v>108</v>
       </c>
       <c r="B95" s="1">
-        <v>0.9405</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C95" s="1">
-        <v>0.94589999999999996</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="D95" s="1">
-        <v>0.59460000000000002</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="E95" s="1">
-        <v>0.6</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="F95" s="1">
-        <v>0.97840000000000005</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="G95" s="1">
-        <v>0.97570000000000001</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="H95" s="1">
-        <v>0.9486</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="I95" s="1">
-        <v>0.98109999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="J95" s="1">
-        <v>0.97299999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K95" s="1">
-        <v>0.97970000000000002</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="L95" s="1">
-        <v>0.64270000000000005</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="M95" s="1">
-        <v>0.98109999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="N95" s="1">
-        <v>0.97030000000000005</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="O95" s="1">
-        <v>0.9405</v>
+        <v>0.90880000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -5215,46 +5228,46 @@
         <v>109</v>
       </c>
       <c r="B96" s="1">
-        <v>0.79200000000000004</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>0.78879999999999995</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="D96" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.89049999999999996</v>
       </c>
       <c r="E96" s="1">
-        <v>0.79679999999999995</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="F96" s="1">
-        <v>0.96479999999999999</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="G96" s="1">
-        <v>0.97760000000000002</v>
+        <v>0.97889999999999999</v>
       </c>
       <c r="H96" s="1">
-        <v>0.93759999999999999</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="I96" s="1">
-        <v>0.96</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="J96" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="K96" s="1">
-        <v>0.97450000000000003</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="L96" s="1">
-        <v>0.97789999999999999</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="M96" s="1">
-        <v>0.96799999999999997</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="N96" s="1">
-        <v>0.89280000000000004</v>
+        <v>0.86229999999999996</v>
       </c>
       <c r="O96" s="1">
-        <v>0.90880000000000005</v>
+        <v>0.92459999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -5262,46 +5275,46 @@
         <v>110</v>
       </c>
       <c r="B97" s="1">
-        <v>0.94969999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="C97" s="1">
-        <v>0.89949999999999997</v>
+        <v>0.88</v>
       </c>
       <c r="D97" s="1">
-        <v>0.89049999999999996</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="E97" s="1">
-        <v>0.89249999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="F97" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="G97" s="1">
-        <v>0.97889999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="H97" s="1">
-        <v>0.94469999999999998</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="I97" s="1">
-        <v>0.97389999999999999</v>
+        <v>1</v>
       </c>
       <c r="J97" s="1">
-        <v>0.9819</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="K97" s="1">
-        <v>0.97240000000000004</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="L97" s="1">
-        <v>0.97430000000000005</v>
+        <v>0.9667</v>
       </c>
       <c r="M97" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="N97" s="1">
-        <v>0.86229999999999996</v>
+        <v>0.9667</v>
       </c>
       <c r="O97" s="1">
-        <v>0.92459999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -5309,46 +5322,46 @@
         <v>111</v>
       </c>
       <c r="B98" s="1">
-        <v>0.99329999999999996</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="C98" s="1">
-        <v>0.88</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="D98" s="1">
-        <v>0.94669999999999999</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="E98" s="1">
-        <v>0.94</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="F98" s="1">
-        <v>0.99329999999999996</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="G98" s="1">
-        <v>0.99329999999999996</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="H98" s="1">
-        <v>0.99670000000000003</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="I98" s="1">
-        <v>1</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="J98" s="1">
-        <v>0.99670000000000003</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="K98" s="1">
-        <v>0.99470000000000003</v>
+        <v>0.9294</v>
       </c>
       <c r="L98" s="1">
-        <v>0.9667</v>
+        <v>0.9728</v>
       </c>
       <c r="M98" s="1">
-        <v>0.99329999999999996</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="N98" s="1">
-        <v>0.9667</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="O98" s="1">
-        <v>1</v>
+        <v>0.96489999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -5356,46 +5369,46 @@
         <v>112</v>
       </c>
       <c r="B99" s="1">
-        <v>0.77190000000000003</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="C99" s="1">
-        <v>0.67979999999999996</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="D99" s="1">
-        <v>0.59650000000000003</v>
+        <v>0.71540000000000004</v>
       </c>
       <c r="E99" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.5615</v>
       </c>
       <c r="F99" s="1">
-        <v>0.96050000000000002</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="G99" s="1">
-        <v>0.96050000000000002</v>
+        <v>0.93079999999999996</v>
       </c>
       <c r="H99" s="1">
-        <v>0.90790000000000004</v>
+        <v>0.86919999999999997</v>
       </c>
       <c r="I99" s="1">
-        <v>0.96050000000000002</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="J99" s="1">
-        <v>0.95179999999999998</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="K99" s="1">
-        <v>0.9294</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="L99" s="1">
-        <v>0.9728</v>
+        <v>0.95540000000000003</v>
       </c>
       <c r="M99" s="1">
-        <v>0.96489999999999998</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="N99" s="1">
-        <v>0.60529999999999995</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="O99" s="1">
-        <v>0.96489999999999998</v>
+        <v>0.91539999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -5403,46 +5416,46 @@
         <v>113</v>
       </c>
       <c r="B100" s="1">
-        <v>0.83850000000000002</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0.80769999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="D100" s="1">
-        <v>0.71540000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="E100" s="1">
-        <v>0.5615</v>
+        <v>0.81</v>
       </c>
       <c r="F100" s="1">
-        <v>0.91539999999999999</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1">
-        <v>0.93079999999999996</v>
+        <v>1</v>
       </c>
       <c r="H100" s="1">
-        <v>0.86919999999999997</v>
+        <v>1</v>
       </c>
       <c r="I100" s="1">
-        <v>0.91539999999999999</v>
+        <v>1</v>
       </c>
       <c r="J100" s="1">
-        <v>0.91539999999999999</v>
+        <v>1</v>
       </c>
       <c r="K100" s="1">
-        <v>0.94379999999999997</v>
+        <v>1</v>
       </c>
       <c r="L100" s="1">
-        <v>0.95540000000000003</v>
+        <v>1</v>
       </c>
       <c r="M100" s="1">
-        <v>0.87690000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="N100" s="1">
-        <v>0.80769999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="O100" s="1">
-        <v>0.91539999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -5450,46 +5463,46 @@
         <v>114</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="C101" s="1">
-        <v>0.76</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="D101" s="1">
-        <v>0.7</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="E101" s="1">
-        <v>0.81</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>0.72430000000000005</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
       </c>
       <c r="H101" s="1">
-        <v>1</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="I101" s="1">
-        <v>1</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="J101" s="1">
-        <v>1</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="L101" s="1">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="M101" s="1">
-        <v>0.98</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="N101" s="1">
-        <v>0.96</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="O101" s="1">
-        <v>1</v>
+        <v>0.9657</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -5497,46 +5510,46 @@
         <v>115</v>
       </c>
       <c r="B102" s="1">
-        <v>0.90429999999999999</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>0.74709999999999999</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="D102" s="1">
-        <v>0.79020000000000001</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="E102" s="1">
-        <v>0.84199999999999997</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="F102" s="1">
-        <v>0.72430000000000005</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="H102" s="1">
-        <v>0.97450000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="I102" s="1">
-        <v>0.99909999999999999</v>
+        <v>1</v>
       </c>
       <c r="J102" s="1">
-        <v>0.99819999999999998</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>0.99790000000000001</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1">
-        <v>0.997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M102" s="1">
-        <v>0.99909999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="N102" s="1">
-        <v>0.92190000000000005</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="O102" s="1">
-        <v>0.9657</v>
+        <v>0.95750000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -5544,46 +5557,46 @@
         <v>116</v>
       </c>
       <c r="B103" s="1">
-        <v>1</v>
+        <v>0.88190000000000002</v>
       </c>
       <c r="C103" s="1">
-        <v>0.90680000000000005</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="D103" s="1">
-        <v>0.41749999999999998</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="E103" s="1">
-        <v>0.42049999999999998</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
       </c>
       <c r="G103" s="1">
-        <v>0.997</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H103" s="1">
-        <v>0.99</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="I103" s="1">
-        <v>1</v>
+        <v>0.99309999999999998</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0.99309999999999998</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="L103" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="M103" s="1">
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
       <c r="N103" s="1">
-        <v>0.95520000000000005</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="O103" s="1">
-        <v>0.95750000000000002</v>
+        <v>0.97529999999999994</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -5591,46 +5604,46 @@
         <v>117</v>
       </c>
       <c r="B104" s="1">
-        <v>0.88190000000000002</v>
+        <v>0.89170000000000005</v>
       </c>
       <c r="C104" s="1">
-        <v>0.80559999999999998</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="D104" s="1">
-        <v>0.61109999999999998</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="E104" s="1">
-        <v>0.65969999999999995</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="F104" s="1">
-        <v>1</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="G104" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="H104" s="1">
-        <v>0.94440000000000002</v>
+        <v>0.95309999999999995</v>
       </c>
       <c r="I104" s="1">
-        <v>0.99309999999999998</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="J104" s="1">
-        <v>0.99309999999999998</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="K104" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="L104" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="M104" s="1">
-        <v>0</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="N104" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="O104" s="1">
-        <v>0.97529999999999994</v>
+        <v>0.95220000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -5638,46 +5651,46 @@
         <v>118</v>
       </c>
       <c r="B105" s="1">
-        <v>0.89170000000000005</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="C105" s="1">
-        <v>0.94810000000000005</v>
+        <v>0.73929999999999996</v>
       </c>
       <c r="D105" s="1">
-        <v>0.92210000000000003</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="E105" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="F105" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.73929999999999996</v>
       </c>
       <c r="G105" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="H105" s="1">
-        <v>0.95309999999999995</v>
+        <v>0.79420000000000002</v>
       </c>
       <c r="I105" s="1">
-        <v>0.97570000000000001</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="J105" s="1">
-        <v>0.98070000000000002</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="K105" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.878</v>
       </c>
       <c r="L105" s="1">
-        <v>0.84250000000000003</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="M105" s="1">
-        <v>0.84250000000000003</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="N105" s="1">
-        <v>0.93049999999999999</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="O105" s="1">
-        <v>0.95220000000000005</v>
+        <v>0.80510000000000004</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -5685,46 +5698,46 @@
         <v>119</v>
       </c>
       <c r="B106" s="1">
-        <v>0.72750000000000004</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="C106" s="1">
-        <v>0.73929999999999996</v>
+        <v>0.66159999999999997</v>
       </c>
       <c r="D106" s="1">
-        <v>0.68149999999999999</v>
+        <v>0.61280000000000001</v>
       </c>
       <c r="E106" s="1">
-        <v>0.68930000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="F106" s="1">
-        <v>0.73929999999999996</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="G106" s="1">
-        <v>0.83809999999999996</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="H106" s="1">
-        <v>0.79420000000000002</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="I106" s="1">
-        <v>0.85509999999999997</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="J106" s="1">
-        <v>0.87239999999999995</v>
+        <v>0.80569999999999997</v>
       </c>
       <c r="K106" s="1">
-        <v>0.878</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="L106" s="1">
-        <v>0.84060000000000001</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="M106" s="1">
-        <v>0.76129999999999998</v>
+        <v>0.66469999999999996</v>
       </c>
       <c r="N106" s="1">
-        <v>0.72360000000000002</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="O106" s="1">
-        <v>0.80510000000000004</v>
+        <v>0.74870000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -5732,46 +5745,46 @@
         <v>120</v>
       </c>
       <c r="B107" s="1">
-        <v>0.63400000000000001</v>
+        <v>0.6583</v>
       </c>
       <c r="C107" s="1">
-        <v>0.66159999999999997</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="D107" s="1">
-        <v>0.61280000000000001</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="E107" s="1">
-        <v>0.62</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="F107" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.7954</v>
       </c>
       <c r="G107" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="H107" s="1">
-        <v>0.73340000000000005</v>
+        <v>0.71889999999999998</v>
       </c>
       <c r="I107" s="1">
-        <v>0.77829999999999999</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="J107" s="1">
-        <v>0.80569999999999997</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="K107" s="1">
-        <v>0.81310000000000004</v>
+        <v>0.8216</v>
       </c>
       <c r="L107" s="1">
-        <v>0.75719999999999998</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="M107" s="1">
-        <v>0.66469999999999996</v>
+        <v>0.751</v>
       </c>
       <c r="N107" s="1">
-        <v>0.63460000000000005</v>
+        <v>0.65720000000000001</v>
       </c>
       <c r="O107" s="1">
-        <v>0.74870000000000003</v>
+        <v>0.69730000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -5779,46 +5792,46 @@
         <v>121</v>
       </c>
       <c r="B108" s="1">
-        <v>0.6583</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="C108" s="1">
-        <v>0.64959999999999996</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="D108" s="1">
-        <v>0.63180000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="E108" s="1">
-        <v>0.62929999999999997</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="F108" s="1">
-        <v>0.7954</v>
+        <v>1</v>
       </c>
       <c r="G108" s="1">
-        <v>0.78700000000000003</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H108" s="1">
-        <v>0.71889999999999998</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="I108" s="1">
-        <v>0.79620000000000002</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="J108" s="1">
-        <v>0.81799999999999995</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="K108" s="1">
-        <v>0.8216</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="L108" s="1">
-        <v>0.77980000000000005</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="M108" s="1">
-        <v>0.751</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="N108" s="1">
-        <v>0.65720000000000001</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="O108" s="1">
-        <v>0.69730000000000003</v>
+        <v>0.92210000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -5826,46 +5839,46 @@
         <v>122</v>
       </c>
       <c r="B109" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="C109" s="1">
-        <v>0.99550000000000005</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="D109" s="1">
-        <v>0.8</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="E109" s="1">
-        <v>0.92910000000000004</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F109" s="1">
-        <v>1</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="G109" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H109" s="1">
-        <v>0.99719999999999998</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="I109" s="1">
-        <v>0.99790000000000001</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="J109" s="1">
-        <v>0.99939999999999996</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="K109" s="1">
-        <v>0.99790000000000001</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="L109" s="1">
-        <v>0.90300000000000002</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="M109" s="1">
-        <v>0.99529999999999996</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="N109" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="O109" s="1">
-        <v>0.92210000000000003</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -5873,46 +5886,46 @@
         <v>123</v>
       </c>
       <c r="B110" s="1">
-        <v>0.57410000000000005</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="C110" s="1">
-        <v>0.61109999999999998</v>
+        <v>0.61760000000000004</v>
       </c>
       <c r="D110" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.38090000000000002</v>
       </c>
       <c r="E110" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.3997</v>
       </c>
       <c r="F110" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="G110" s="1">
-        <v>0.92589999999999995</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="H110" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="I110" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="J110" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="K110" s="1">
-        <v>0.93020000000000003</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="L110" s="1">
-        <v>0.52629999999999999</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="M110" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="N110" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.60660000000000003</v>
       </c>
       <c r="O110" s="1">
-        <v>0.8518</v>
+        <v>0.73980000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -5920,46 +5933,46 @@
         <v>124</v>
       </c>
       <c r="B111" s="1">
-        <v>0.64890000000000003</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="C111" s="1">
-        <v>0.61760000000000004</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="D111" s="1">
-        <v>0.38090000000000002</v>
+        <v>0.3377</v>
       </c>
       <c r="E111" s="1">
-        <v>0.3997</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F111" s="1">
-        <v>0.74450000000000005</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="G111" s="1">
-        <v>0.74450000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="H111" s="1">
-        <v>0.61909999999999998</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="I111" s="1">
-        <v>0.74609999999999999</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J111" s="1">
-        <v>0.68020000000000003</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="K111" s="1">
-        <v>0.78890000000000005</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="L111" s="1">
-        <v>0.72009999999999996</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="M111" s="1">
-        <v>0.54079999999999995</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="N111" s="1">
-        <v>0.60660000000000003</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="O111" s="1">
-        <v>0.73980000000000001</v>
+        <v>0.75319999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -5967,46 +5980,46 @@
         <v>125</v>
       </c>
       <c r="B112" s="1">
-        <v>0.58440000000000003</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="C112" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="D112" s="1">
-        <v>0.3377</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="E112" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="F112" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.7792</v>
       </c>
       <c r="G112" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="H112" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.7792</v>
       </c>
       <c r="I112" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="J112" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="K112" s="1">
-        <v>0.74199999999999999</v>
+        <v>0.79649999999999999</v>
       </c>
       <c r="L112" s="1">
-        <v>0.65859999999999996</v>
+        <v>0.58009999999999995</v>
       </c>
       <c r="M112" s="1">
-        <v>0.83120000000000005</v>
+        <v>0.7792</v>
       </c>
       <c r="N112" s="1">
-        <v>0.46750000000000003</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="O112" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
@@ -6014,93 +6027,46 @@
         <v>126</v>
       </c>
       <c r="B113" s="1">
-        <v>0.62339999999999995</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="C113" s="1">
-        <v>0.61040000000000005</v>
+        <v>0.83030000000000004</v>
       </c>
       <c r="D113" s="1">
-        <v>0.53249999999999997</v>
+        <v>0.5847</v>
       </c>
       <c r="E113" s="1">
-        <v>0.53249999999999997</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="F113" s="1">
-        <v>0.7792</v>
+        <v>0.93169999999999997</v>
       </c>
       <c r="G113" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="H113" s="1">
-        <v>0.7792</v>
+        <v>0.81669999999999998</v>
       </c>
       <c r="I113" s="1">
-        <v>0.79220000000000002</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="J113" s="1">
-        <v>0.79220000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="K113" s="1">
-        <v>0.79649999999999999</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="L113" s="1">
-        <v>0.58009999999999995</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="M113" s="1">
-        <v>0.7792</v>
+        <v>0.874</v>
       </c>
       <c r="N113" s="1">
-        <v>0.55840000000000001</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="O113" s="1">
-        <v>0.79220000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0.83630000000000004</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.83030000000000004</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.5847</v>
-      </c>
-      <c r="E114" s="1">
-        <v>0.57930000000000004</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0.93169999999999997</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.93269999999999997</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0.81669999999999998</v>
-      </c>
-      <c r="I114" s="1">
         <v>0.90969999999999995</v>
-      </c>
-      <c r="J114" s="1">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="K114" s="1">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="L114" s="1">
-        <v>0.54330000000000001</v>
-      </c>
-      <c r="M114" s="1">
-        <v>0.874</v>
-      </c>
-      <c r="N114" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="O114" s="1">
-        <v>0.93730000000000002</v>
       </c>
     </row>
   </sheetData>
